--- a/기획서/스핀그로우 기획서_구혜원수정.xlsx
+++ b/기획서/스핀그로우 기획서_구혜원수정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0303707-033F-48F2-B1BE-C9640AE1EB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA83876D-A2A6-41A2-91BC-548308054622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{6831196C-BD2B-4079-A5C5-73E04D2210C2}"/>
+    <workbookView xWindow="0" yWindow="1452" windowWidth="11424" windowHeight="10788" activeTab="4" xr2:uid="{6831196C-BD2B-4079-A5C5-73E04D2210C2}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="284">
   <si>
     <t>ex) 던그리드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1012,10 +1012,6 @@
   </si>
   <si>
     <t>상자의 밀림 정도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물의 속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1204,6 +1200,14 @@
   </si>
   <si>
     <t>우측 상단의 빛나는 문까지 도달해서 다과회 스테이지로 넘어간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유리병에 타기 전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유리병에 탄 후</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2276,7 +2280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2499,6 +2503,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2541,176 +2590,167 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2724,40 +2764,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2766,38 +2830,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2808,170 +2872,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="56" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7566,28 +7555,28 @@
   <sheetData>
     <row r="1" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B2" s="89" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="91"/>
+      <c r="B2" s="75" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="77"/>
     </row>
     <row r="3" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="92"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="84"/>
+      <c r="D5" s="99"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B6" s="78"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="19" t="s">
         <v>125</v>
       </c>
@@ -7606,10 +7595,10 @@
       <c r="B8" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="84"/>
+      <c r="D8" s="99"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B9" s="53" t="s">
@@ -7624,58 +7613,58 @@
       <c r="B10" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="D10" s="84"/>
+      <c r="D10" s="99"/>
     </row>
     <row r="11" spans="2:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="2:16" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="83"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="98"/>
     </row>
     <row r="14" spans="2:16" ht="185.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.4">
       <c r="N15" s="52"/>
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="80"/>
+      <c r="C16" s="95"/>
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
@@ -7686,10 +7675,10 @@
       <c r="K16" s="57"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="96"/>
+      <c r="C17" s="82"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -7733,16 +7722,16 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B26" s="99" t="s">
+      <c r="B26" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B27" s="101" t="s">
+      <c r="B27" s="87" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="88"/>
@@ -7758,10 +7747,10 @@
       <c r="K27" s="46"/>
     </row>
     <row r="43" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="97" t="s">
+      <c r="B43" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="98"/>
+      <c r="C43" s="84"/>
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
@@ -7881,13 +7870,13 @@
       <c r="P48" s="5"/>
     </row>
     <row r="49" spans="2:16" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="86" t="s">
+      <c r="B49" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="85" t="s">
+      <c r="C49" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="85"/>
+      <c r="D49" s="100"/>
       <c r="E49" s="16" t="s">
         <v>21</v>
       </c>
@@ -7904,9 +7893,9 @@
       <c r="P49" s="14"/>
     </row>
     <row r="50" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="87"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="100"/>
       <c r="E50" s="9" t="s">
         <v>22</v>
       </c>
@@ -7927,29 +7916,24 @@
       <c r="C51" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="74" t="s">
+      <c r="D51" s="89" t="s">
         <v>232</v>
       </c>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="75"/>
-      <c r="L51" s="75"/>
-      <c r="M51" s="75"/>
-      <c r="N51" s="75"/>
-      <c r="O51" s="75"/>
-      <c r="P51" s="76"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="90"/>
+      <c r="K51" s="90"/>
+      <c r="L51" s="90"/>
+      <c r="M51" s="90"/>
+      <c r="N51" s="90"/>
+      <c r="O51" s="90"/>
+      <c r="P51" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
     <mergeCell ref="D51:P51"/>
     <mergeCell ref="B14:P14"/>
     <mergeCell ref="B5:B6"/>
@@ -7961,6 +7945,11 @@
     <mergeCell ref="C49:D50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="F27:J27"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7979,21 +7968,21 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="106"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="125"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="103"/>
+      <c r="B2" s="111"/>
       <c r="C2" s="22" t="s">
         <v>58</v>
       </c>
@@ -8011,10 +8000,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="122" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="103"/>
+      <c r="B3" s="111"/>
       <c r="C3" s="22">
         <v>10</v>
       </c>
@@ -8032,10 +8021,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="103"/>
+      <c r="B4" s="111"/>
       <c r="C4" s="22">
         <v>10</v>
       </c>
@@ -8053,10 +8042,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="122" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="103"/>
+      <c r="B5" s="111"/>
       <c r="C5" s="22">
         <v>5</v>
       </c>
@@ -8074,10 +8063,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="103"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="22">
         <v>1</v>
       </c>
@@ -8095,10 +8084,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="103"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="22">
         <v>1</v>
       </c>
@@ -8116,10 +8105,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="103"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="22">
         <v>2</v>
       </c>
@@ -8137,10 +8126,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="103"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="22">
         <v>0</v>
       </c>
@@ -8158,10 +8147,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="103"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="22">
         <v>0</v>
       </c>
@@ -8179,10 +8168,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="103"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="22">
         <v>0</v>
       </c>
@@ -8200,10 +8189,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="103"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="22">
         <v>100</v>
       </c>
@@ -8221,10 +8210,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="108"/>
+      <c r="B13" s="121"/>
       <c r="C13" s="25">
         <v>1</v>
       </c>
@@ -8242,93 +8231,93 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="103" t="s">
+      <c r="A18" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="103"/>
-      <c r="C18" s="103" t="s">
+      <c r="B18" s="111"/>
+      <c r="C18" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="103" t="s">
+      <c r="A19" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="103"/>
-      <c r="C19" s="103" t="s">
+      <c r="B19" s="111"/>
+      <c r="C19" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="103" t="s">
+      <c r="A20" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="103"/>
-      <c r="C20" s="103" t="s">
+      <c r="B20" s="111"/>
+      <c r="C20" s="111" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="103" t="s">
+      <c r="A21" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103" t="s">
+      <c r="B21" s="111"/>
+      <c r="C21" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="103" t="s">
+      <c r="A22" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="103"/>
-      <c r="C22" s="103" t="s">
+      <c r="B22" s="111"/>
+      <c r="C22" s="111" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="103" t="s">
+      <c r="A23" s="111" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="103"/>
-      <c r="C23" s="103" t="s">
+      <c r="B23" s="111"/>
+      <c r="C23" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="27"/>
@@ -8350,139 +8339,139 @@
     </row>
     <row r="26" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="110" t="s">
+      <c r="A27" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="111"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="112"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="105"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="113" t="s">
+      <c r="A28" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="85"/>
-      <c r="C28" s="114" t="s">
+      <c r="B28" s="100"/>
+      <c r="C28" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="116"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="115"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="113"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="117"/>
+      <c r="A29" s="106"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="116"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="113"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="101"/>
+      <c r="A30" s="106"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="87"/>
       <c r="D30" s="88"/>
       <c r="E30" s="88"/>
       <c r="F30" s="88"/>
-      <c r="G30" s="118"/>
+      <c r="G30" s="117"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="113" t="s">
+      <c r="A31" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="85"/>
-      <c r="C31" s="114" t="s">
+      <c r="B31" s="100"/>
+      <c r="C31" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="116"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="115"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="113"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="117"/>
+      <c r="A32" s="106"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="116"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="113"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="101"/>
+      <c r="A33" s="106"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="87"/>
       <c r="D33" s="88"/>
       <c r="E33" s="88"/>
       <c r="F33" s="88"/>
-      <c r="G33" s="118"/>
+      <c r="G33" s="117"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="113" t="s">
+      <c r="A34" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="85"/>
-      <c r="C34" s="114" t="s">
+      <c r="B34" s="100"/>
+      <c r="C34" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="116"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="115"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="113"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="100"/>
-      <c r="G35" s="117"/>
+      <c r="A35" s="106"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="116"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="113"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="101"/>
+      <c r="A36" s="106"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="87"/>
       <c r="D36" s="88"/>
       <c r="E36" s="88"/>
       <c r="F36" s="88"/>
-      <c r="G36" s="118"/>
+      <c r="G36" s="117"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="113" t="s">
+      <c r="A37" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="85"/>
-      <c r="C37" s="114" t="s">
+      <c r="B37" s="100"/>
+      <c r="C37" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="116"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="115"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" s="113"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="100"/>
-      <c r="G38" s="117"/>
+      <c r="A38" s="106"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="116"/>
     </row>
     <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="119"/>
-      <c r="B39" s="120"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="94"/>
+      <c r="A39" s="108"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="80"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="28"/>
@@ -8512,211 +8501,212 @@
       <c r="G42" s="28"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43" s="109" t="s">
+      <c r="A43" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="109"/>
-      <c r="C43" s="109"/>
-      <c r="D43" s="109"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="109"/>
-      <c r="G43" s="109"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="119"/>
+      <c r="F43" s="119"/>
+      <c r="G43" s="119"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A44" s="103" t="s">
+      <c r="A44" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="103"/>
-      <c r="C44" s="103" t="s">
+      <c r="B44" s="111"/>
+      <c r="C44" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="103"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="103"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="111"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A45" s="103" t="s">
+      <c r="A45" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="103"/>
-      <c r="C45" s="103" t="s">
+      <c r="B45" s="111"/>
+      <c r="C45" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="103"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="111"/>
+      <c r="F45" s="111"/>
+      <c r="G45" s="111"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A46" s="122" t="s">
+      <c r="A46" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="122"/>
-      <c r="C46" s="122" t="s">
+      <c r="B46" s="112"/>
+      <c r="C46" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="122"/>
-      <c r="E46" s="122"/>
-      <c r="F46" s="122"/>
-      <c r="G46" s="122"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="112"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="103" t="s">
+      <c r="A47" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="103"/>
-      <c r="C47" s="103" t="s">
+      <c r="B47" s="111"/>
+      <c r="C47" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="103"/>
-      <c r="E47" s="103"/>
-      <c r="F47" s="103"/>
-      <c r="G47" s="103"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="111"/>
+      <c r="F47" s="111"/>
+      <c r="G47" s="111"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A48" s="103" t="s">
+      <c r="A48" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="103"/>
-      <c r="C48" s="103" t="s">
+      <c r="B48" s="111"/>
+      <c r="C48" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="103"/>
-      <c r="E48" s="103"/>
-      <c r="F48" s="103"/>
-      <c r="G48" s="103"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="111"/>
+      <c r="F48" s="111"/>
+      <c r="G48" s="111"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A49" s="103" t="s">
+      <c r="A49" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="103"/>
-      <c r="C49" s="103" t="s">
+      <c r="B49" s="111"/>
+      <c r="C49" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="D49" s="103"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="103"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="111"/>
+      <c r="F49" s="111"/>
+      <c r="G49" s="111"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A50" s="100"/>
-      <c r="B50" s="100"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="100"/>
-      <c r="E50" s="100"/>
-      <c r="F50" s="100"/>
-      <c r="G50" s="100"/>
+      <c r="A50" s="86"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="86"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A51" s="100"/>
-      <c r="B51" s="100"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="100"/>
-      <c r="E51" s="100"/>
-      <c r="F51" s="100"/>
-      <c r="G51" s="100"/>
+      <c r="A51" s="86"/>
+      <c r="B51" s="86"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="86"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A52" s="100"/>
-      <c r="B52" s="100"/>
-      <c r="C52" s="100"/>
-      <c r="D52" s="100"/>
-      <c r="E52" s="100"/>
-      <c r="F52" s="100"/>
-      <c r="G52" s="100"/>
+      <c r="A52" s="86"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="86"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A53" s="100"/>
-      <c r="B53" s="100"/>
-      <c r="C53" s="100"/>
-      <c r="D53" s="100"/>
-      <c r="E53" s="100"/>
-      <c r="F53" s="100"/>
-      <c r="G53" s="100"/>
+      <c r="A53" s="86"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
     </row>
     <row r="54" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A55" s="110" t="s">
+      <c r="A55" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="111"/>
-      <c r="C55" s="111"/>
-      <c r="D55" s="111"/>
-      <c r="E55" s="111"/>
-      <c r="F55" s="111"/>
-      <c r="G55" s="112"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="104"/>
+      <c r="G55" s="105"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A56" s="113" t="s">
+      <c r="A56" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="85"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="123"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="100"/>
+      <c r="F56" s="100"/>
+      <c r="G56" s="107"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A57" s="113" t="s">
+      <c r="A57" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="123"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="100"/>
+      <c r="E57" s="100"/>
+      <c r="F57" s="100"/>
+      <c r="G57" s="107"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A58" s="113" t="s">
+      <c r="A58" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="123"/>
+      <c r="B58" s="100"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="100"/>
+      <c r="E58" s="100"/>
+      <c r="F58" s="100"/>
+      <c r="G58" s="107"/>
     </row>
     <row r="59" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="119" t="s">
+      <c r="A59" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="120"/>
-      <c r="C59" s="120"/>
-      <c r="D59" s="120"/>
-      <c r="E59" s="120"/>
-      <c r="F59" s="120"/>
-      <c r="G59" s="124"/>
+      <c r="B59" s="109"/>
+      <c r="C59" s="109"/>
+      <c r="D59" s="109"/>
+      <c r="E59" s="109"/>
+      <c r="F59" s="109"/>
+      <c r="G59" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="C44:G44"/>
     <mergeCell ref="A23:B23"/>
@@ -8731,30 +8721,29 @@
     <mergeCell ref="A37:B39"/>
     <mergeCell ref="C37:G39"/>
     <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A59:G59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8777,91 +8766,91 @@
     </row>
     <row r="17" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="125" t="s">
+      <c r="B18" s="126" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="128"/>
+    </row>
+    <row r="19" spans="2:10" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="133" t="s">
         <v>246</v>
       </c>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="127"/>
-    </row>
-    <row r="19" spans="2:10" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="132" t="s">
+      <c r="C19" s="102"/>
+      <c r="D19" s="138" t="s">
+        <v>249</v>
+      </c>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="139"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B20" s="134" t="s">
         <v>247</v>
       </c>
-      <c r="C19" s="87"/>
-      <c r="D19" s="137" t="s">
+      <c r="C20" s="135"/>
+      <c r="D20" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="138"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B20" s="133" t="s">
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="107"/>
+    </row>
+    <row r="21" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="136" t="s">
         <v>248</v>
       </c>
-      <c r="C20" s="134"/>
-      <c r="D20" s="85" t="s">
+      <c r="C21" s="137"/>
+      <c r="D21" s="109" t="s">
         <v>251</v>
       </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="123"/>
-    </row>
-    <row r="21" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="135" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="136"/>
-      <c r="D21" s="120" t="s">
-        <v>252</v>
-      </c>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="124"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="110"/>
     </row>
     <row r="39" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="40" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="125" t="s">
+      <c r="B40" s="126" t="s">
+        <v>252</v>
+      </c>
+      <c r="C40" s="127"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="127"/>
+      <c r="G40" s="127"/>
+      <c r="H40" s="127"/>
+      <c r="I40" s="127"/>
+      <c r="J40" s="128"/>
+    </row>
+    <row r="41" spans="2:10" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="129" t="s">
         <v>253</v>
       </c>
-      <c r="C40" s="126"/>
-      <c r="D40" s="126"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="126"/>
-      <c r="G40" s="126"/>
-      <c r="H40" s="126"/>
-      <c r="I40" s="126"/>
-      <c r="J40" s="127"/>
-    </row>
-    <row r="41" spans="2:10" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="128" t="s">
+      <c r="C41" s="130"/>
+      <c r="D41" s="131" t="s">
         <v>254</v>
       </c>
-      <c r="C41" s="129"/>
-      <c r="D41" s="130" t="s">
-        <v>255</v>
-      </c>
-      <c r="E41" s="130"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="130"/>
-      <c r="H41" s="130"/>
-      <c r="I41" s="130"/>
-      <c r="J41" s="131"/>
+      <c r="E41" s="131"/>
+      <c r="F41" s="131"/>
+      <c r="G41" s="131"/>
+      <c r="H41" s="131"/>
+      <c r="I41" s="131"/>
+      <c r="J41" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8900,81 +8889,81 @@
       <c r="B19" s="29"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B23" s="158" t="s">
+      <c r="B23" s="140" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="158"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="158"/>
-      <c r="K23" s="158"/>
-      <c r="L23" s="158"/>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="140"/>
+      <c r="K23" s="140"/>
+      <c r="L23" s="140"/>
+      <c r="M23" s="140"/>
+      <c r="N23" s="140"/>
     </row>
     <row r="24" spans="2:14" ht="150.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="139" t="s">
+      <c r="B24" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="140"/>
-      <c r="D24" s="149" t="s">
+      <c r="C24" s="146"/>
+      <c r="D24" s="151" t="s">
         <v>180</v>
       </c>
-      <c r="E24" s="150"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="150"/>
-      <c r="H24" s="150"/>
-      <c r="I24" s="150"/>
-      <c r="J24" s="150"/>
-      <c r="K24" s="150"/>
-      <c r="L24" s="150"/>
-      <c r="M24" s="151"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="152"/>
+      <c r="K24" s="152"/>
+      <c r="L24" s="152"/>
+      <c r="M24" s="153"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B25" s="143"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="114" t="s">
+      <c r="B25" s="147"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="113" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="152"/>
-      <c r="F25" s="159" t="s">
+      <c r="E25" s="141"/>
+      <c r="F25" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="G25" s="160"/>
-      <c r="H25" s="159" t="s">
+      <c r="G25" s="144"/>
+      <c r="H25" s="143" t="s">
         <v>142</v>
       </c>
-      <c r="I25" s="160"/>
+      <c r="I25" s="144"/>
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
     </row>
     <row r="26" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="143"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="159">
+      <c r="B26" s="147"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="143">
         <v>20</v>
       </c>
-      <c r="G26" s="160"/>
-      <c r="H26" s="159" t="s">
+      <c r="G26" s="144"/>
+      <c r="H26" s="143" t="s">
         <v>139</v>
       </c>
-      <c r="I26" s="160"/>
+      <c r="I26" s="144"/>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B27" s="143"/>
-      <c r="C27" s="144"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="148"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19" t="s">
         <v>135</v>
@@ -8997,8 +8986,8 @@
       <c r="M27" s="19"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B28" s="143"/>
-      <c r="C28" s="144"/>
+      <c r="B28" s="147"/>
+      <c r="C28" s="148"/>
       <c r="D28" s="19" t="s">
         <v>141</v>
       </c>
@@ -9023,44 +9012,44 @@
       <c r="M28" s="19"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B29" s="143"/>
-      <c r="C29" s="144"/>
+      <c r="B29" s="147"/>
+      <c r="C29" s="148"/>
       <c r="D29" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E29" s="159" t="s">
+      <c r="E29" s="143" t="s">
         <v>168</v>
       </c>
-      <c r="F29" s="160"/>
+      <c r="F29" s="144"/>
       <c r="G29" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="H29" s="159">
+      <c r="H29" s="143">
         <v>20</v>
       </c>
-      <c r="I29" s="160"/>
+      <c r="I29" s="144"/>
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B30" s="141"/>
-      <c r="C30" s="142"/>
+      <c r="B30" s="149"/>
+      <c r="C30" s="150"/>
       <c r="D30" s="19" t="s">
         <v>144</v>
       </c>
       <c r="E30" s="19"/>
-      <c r="F30" s="155" t="s">
+      <c r="F30" s="154" t="s">
         <v>179</v>
       </c>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="156"/>
-      <c r="L30" s="156"/>
-      <c r="M30" s="157"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="155"/>
+      <c r="K30" s="155"/>
+      <c r="L30" s="155"/>
+      <c r="M30" s="156"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B31" s="44"/>
@@ -9080,32 +9069,32 @@
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B66" s="78" t="s">
+      <c r="B66" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="C66" s="78"/>
-      <c r="D66" s="84" t="s">
+      <c r="C66" s="93"/>
+      <c r="D66" s="99" t="s">
         <v>172</v>
       </c>
-      <c r="E66" s="84"/>
-      <c r="F66" s="84"/>
-      <c r="G66" s="84"/>
-      <c r="H66" s="84"/>
-      <c r="I66" s="84"/>
-      <c r="J66" s="84"/>
-      <c r="K66" s="84"/>
-      <c r="L66" s="84"/>
-      <c r="M66" s="84"/>
-      <c r="N66" s="84"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="99"/>
+      <c r="G66" s="99"/>
+      <c r="H66" s="99"/>
+      <c r="I66" s="99"/>
+      <c r="J66" s="99"/>
+      <c r="K66" s="99"/>
+      <c r="L66" s="99"/>
+      <c r="M66" s="99"/>
+      <c r="N66" s="99"/>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B67" s="78"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="85" t="s">
+      <c r="B67" s="93"/>
+      <c r="C67" s="93"/>
+      <c r="D67" s="100" t="s">
         <v>205</v>
       </c>
-      <c r="E67" s="85"/>
-      <c r="F67" s="85"/>
+      <c r="E67" s="100"/>
+      <c r="F67" s="100"/>
       <c r="G67" s="19" t="s">
         <v>203</v>
       </c>
@@ -9114,11 +9103,11 @@
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B68" s="78"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="85"/>
-      <c r="E68" s="85"/>
-      <c r="F68" s="85"/>
+      <c r="B68" s="93"/>
+      <c r="C68" s="93"/>
+      <c r="D68" s="100"/>
+      <c r="E68" s="100"/>
+      <c r="F68" s="100"/>
       <c r="G68" s="19" t="s">
         <v>204</v>
       </c>
@@ -9127,71 +9116,71 @@
       </c>
     </row>
     <row r="69" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="154" t="s">
+      <c r="B69" s="161" t="s">
         <v>181</v>
       </c>
       <c r="C69" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="D69" s="155" t="s">
-        <v>244</v>
-      </c>
-      <c r="E69" s="156"/>
-      <c r="F69" s="156"/>
-      <c r="G69" s="156"/>
-      <c r="H69" s="156"/>
-      <c r="I69" s="156"/>
-      <c r="J69" s="156"/>
-      <c r="K69" s="156"/>
-      <c r="L69" s="156"/>
-      <c r="M69" s="156"/>
-      <c r="N69" s="157"/>
+      <c r="D69" s="154" t="s">
+        <v>243</v>
+      </c>
+      <c r="E69" s="155"/>
+      <c r="F69" s="155"/>
+      <c r="G69" s="155"/>
+      <c r="H69" s="155"/>
+      <c r="I69" s="155"/>
+      <c r="J69" s="155"/>
+      <c r="K69" s="155"/>
+      <c r="L69" s="155"/>
+      <c r="M69" s="155"/>
+      <c r="N69" s="156"/>
     </row>
     <row r="70" spans="2:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="154"/>
+      <c r="B70" s="161"/>
       <c r="C70" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="D70" s="155" t="s">
+      <c r="D70" s="154" t="s">
         <v>171</v>
       </c>
-      <c r="E70" s="156"/>
-      <c r="F70" s="156"/>
-      <c r="G70" s="156"/>
-      <c r="H70" s="156"/>
-      <c r="I70" s="156"/>
-      <c r="J70" s="156"/>
-      <c r="K70" s="156"/>
-      <c r="L70" s="156"/>
-      <c r="M70" s="156"/>
-      <c r="N70" s="157"/>
+      <c r="E70" s="155"/>
+      <c r="F70" s="155"/>
+      <c r="G70" s="155"/>
+      <c r="H70" s="155"/>
+      <c r="I70" s="155"/>
+      <c r="J70" s="155"/>
+      <c r="K70" s="155"/>
+      <c r="L70" s="155"/>
+      <c r="M70" s="155"/>
+      <c r="N70" s="156"/>
     </row>
     <row r="71" spans="2:15" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="139" t="s">
+      <c r="B71" s="145" t="s">
         <v>196</v>
       </c>
-      <c r="C71" s="140"/>
-      <c r="D71" s="149" t="s">
+      <c r="C71" s="146"/>
+      <c r="D71" s="151" t="s">
         <v>188</v>
       </c>
-      <c r="E71" s="150"/>
-      <c r="F71" s="150"/>
-      <c r="G71" s="150"/>
-      <c r="H71" s="150"/>
-      <c r="I71" s="150"/>
-      <c r="J71" s="150"/>
-      <c r="K71" s="150"/>
-      <c r="L71" s="150"/>
-      <c r="M71" s="150"/>
-      <c r="N71" s="151"/>
+      <c r="E71" s="152"/>
+      <c r="F71" s="152"/>
+      <c r="G71" s="152"/>
+      <c r="H71" s="152"/>
+      <c r="I71" s="152"/>
+      <c r="J71" s="152"/>
+      <c r="K71" s="152"/>
+      <c r="L71" s="152"/>
+      <c r="M71" s="152"/>
+      <c r="N71" s="153"/>
     </row>
     <row r="72" spans="2:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="143"/>
-      <c r="C72" s="144"/>
-      <c r="D72" s="145" t="s">
+      <c r="B72" s="147"/>
+      <c r="C72" s="148"/>
+      <c r="D72" s="157" t="s">
         <v>182</v>
       </c>
-      <c r="E72" s="146"/>
+      <c r="E72" s="158"/>
       <c r="F72" s="19" t="s">
         <v>135</v>
       </c>
@@ -9213,10 +9202,10 @@
       <c r="N72" s="19"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B73" s="141"/>
-      <c r="C73" s="142"/>
-      <c r="D73" s="147"/>
-      <c r="E73" s="148"/>
+      <c r="B73" s="149"/>
+      <c r="C73" s="150"/>
+      <c r="D73" s="159"/>
+      <c r="E73" s="160"/>
       <c r="F73" s="19" t="s">
         <v>183</v>
       </c>
@@ -9238,27 +9227,27 @@
       <c r="N73" s="19"/>
     </row>
     <row r="74" spans="2:15" ht="52.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="139" t="s">
+      <c r="B74" s="145" t="s">
         <v>197</v>
       </c>
-      <c r="C74" s="140"/>
-      <c r="D74" s="149" t="s">
+      <c r="C74" s="146"/>
+      <c r="D74" s="151" t="s">
         <v>189</v>
       </c>
-      <c r="E74" s="150"/>
-      <c r="F74" s="150"/>
-      <c r="G74" s="150"/>
-      <c r="H74" s="150"/>
-      <c r="I74" s="150"/>
-      <c r="J74" s="150"/>
-      <c r="K74" s="150"/>
-      <c r="L74" s="150"/>
-      <c r="M74" s="150"/>
-      <c r="N74" s="151"/>
+      <c r="E74" s="152"/>
+      <c r="F74" s="152"/>
+      <c r="G74" s="152"/>
+      <c r="H74" s="152"/>
+      <c r="I74" s="152"/>
+      <c r="J74" s="152"/>
+      <c r="K74" s="152"/>
+      <c r="L74" s="152"/>
+      <c r="M74" s="152"/>
+      <c r="N74" s="153"/>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B75" s="143"/>
-      <c r="C75" s="144"/>
+      <c r="B75" s="147"/>
+      <c r="C75" s="148"/>
       <c r="D75" s="19" t="s">
         <v>190</v>
       </c>
@@ -9276,13 +9265,13 @@
       <c r="N75" s="37"/>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B76" s="143"/>
-      <c r="C76" s="144"/>
-      <c r="D76" s="114" t="s">
+      <c r="B76" s="147"/>
+      <c r="C76" s="148"/>
+      <c r="D76" s="113" t="s">
         <v>191</v>
       </c>
-      <c r="E76" s="115"/>
-      <c r="F76" s="152"/>
+      <c r="E76" s="114"/>
+      <c r="F76" s="141"/>
       <c r="G76" s="15" t="s">
         <v>135</v>
       </c>
@@ -9303,11 +9292,11 @@
       <c r="N76" s="19"/>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B77" s="143"/>
-      <c r="C77" s="144"/>
-      <c r="D77" s="101"/>
+      <c r="B77" s="147"/>
+      <c r="C77" s="148"/>
+      <c r="D77" s="87"/>
       <c r="E77" s="88"/>
-      <c r="F77" s="153"/>
+      <c r="F77" s="142"/>
       <c r="G77" s="45">
         <v>0</v>
       </c>
@@ -9328,8 +9317,8 @@
       <c r="N77" s="19"/>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B78" s="141"/>
-      <c r="C78" s="142"/>
+      <c r="B78" s="149"/>
+      <c r="C78" s="150"/>
       <c r="D78" s="19" t="s">
         <v>178</v>
       </c>
@@ -9347,10 +9336,10 @@
       <c r="N78" s="37"/>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B79" s="139" t="s">
+      <c r="B79" s="145" t="s">
         <v>198</v>
       </c>
-      <c r="C79" s="140"/>
+      <c r="C79" s="146"/>
       <c r="D79" s="35" t="s">
         <v>192</v>
       </c>
@@ -9366,8 +9355,8 @@
       <c r="N79" s="37"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B80" s="141"/>
-      <c r="C80" s="142"/>
+      <c r="B80" s="149"/>
+      <c r="C80" s="150"/>
       <c r="D80" s="19" t="s">
         <v>66</v>
       </c>
@@ -9386,10 +9375,10 @@
       <c r="O80" s="31"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B81" s="139" t="s">
+      <c r="B81" s="145" t="s">
         <v>199</v>
       </c>
-      <c r="C81" s="140"/>
+      <c r="C81" s="146"/>
       <c r="D81" s="35" t="s">
         <v>195</v>
       </c>
@@ -9406,8 +9395,8 @@
       <c r="O81" s="31"/>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B82" s="141"/>
-      <c r="C82" s="142"/>
+      <c r="B82" s="149"/>
+      <c r="C82" s="150"/>
       <c r="D82" s="19" t="s">
         <v>66</v>
       </c>
@@ -9426,18 +9415,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B23:N23"/>
-    <mergeCell ref="D66:N66"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B24:C30"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="F30:M30"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
     <mergeCell ref="B81:C82"/>
     <mergeCell ref="B66:C68"/>
     <mergeCell ref="D67:F68"/>
@@ -9451,6 +9428,18 @@
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="D69:N69"/>
     <mergeCell ref="D70:N70"/>
+    <mergeCell ref="B23:N23"/>
+    <mergeCell ref="D66:N66"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B24:C30"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="F30:M30"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9462,163 +9451,163 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB61364C-7092-4374-B974-5D8E093825D9}">
   <dimension ref="B15:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="15" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="128"/>
     </row>
     <row r="17" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="15"/>
-      <c r="D17" s="174" t="s">
+      <c r="D17" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="174"/>
-      <c r="F17" s="174"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="174"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="174"/>
-      <c r="K17" s="174"/>
-      <c r="L17" s="175"/>
+      <c r="E17" s="194"/>
+      <c r="F17" s="194"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="194"/>
+      <c r="J17" s="194"/>
+      <c r="K17" s="194"/>
+      <c r="L17" s="195"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="19"/>
-      <c r="D18" s="84" t="s">
+      <c r="D18" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="176"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="196"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="19"/>
-      <c r="D19" s="84" t="s">
+      <c r="D19" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="176"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="196"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B20" s="217" t="s">
+      <c r="B20" s="175" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="213"/>
-      <c r="D20" s="84" t="s">
+      <c r="C20" s="176"/>
+      <c r="D20" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="176"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="196"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B21" s="215"/>
-      <c r="C21" s="214"/>
-      <c r="D21" s="84" t="s">
+      <c r="B21" s="177"/>
+      <c r="C21" s="178"/>
+      <c r="D21" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="176"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="196"/>
     </row>
     <row r="22" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="216"/>
-      <c r="C22" s="218"/>
-      <c r="D22" s="219" t="s">
-        <v>282</v>
-      </c>
-      <c r="E22" s="219"/>
-      <c r="F22" s="219"/>
-      <c r="G22" s="219"/>
-      <c r="H22" s="219"/>
-      <c r="I22" s="219"/>
-      <c r="J22" s="219"/>
-      <c r="K22" s="219"/>
-      <c r="L22" s="220"/>
+      <c r="B22" s="179"/>
+      <c r="C22" s="180"/>
+      <c r="D22" s="173" t="s">
+        <v>281</v>
+      </c>
+      <c r="E22" s="173"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="173"/>
+      <c r="K22" s="173"/>
+      <c r="L22" s="174"/>
     </row>
     <row r="23" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="211"/>
-      <c r="C23" s="211"/>
-      <c r="D23" s="212"/>
-      <c r="E23" s="212"/>
-      <c r="F23" s="212"/>
-      <c r="G23" s="212"/>
-      <c r="H23" s="212"/>
-      <c r="I23" s="212"/>
-      <c r="J23" s="212"/>
-      <c r="K23" s="212"/>
-      <c r="L23" s="212"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
     </row>
     <row r="24" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="161" t="s">
+      <c r="B24" s="181" t="s">
         <v>236</v>
       </c>
-      <c r="C24" s="167"/>
-      <c r="D24" s="165" t="s">
+      <c r="C24" s="200"/>
+      <c r="D24" s="162" t="s">
         <v>237</v>
       </c>
-      <c r="E24" s="166"/>
-      <c r="F24" s="171">
+      <c r="E24" s="163"/>
+      <c r="F24" s="164">
         <v>2</v>
       </c>
-      <c r="G24" s="172"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="173"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="166"/>
     </row>
     <row r="25" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="169"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="163" t="s">
+      <c r="B25" s="183"/>
+      <c r="C25" s="184"/>
+      <c r="D25" s="185" t="s">
         <v>238</v>
       </c>
-      <c r="E25" s="164"/>
+      <c r="E25" s="186"/>
       <c r="F25" s="62" t="s">
         <v>114</v>
       </c>
@@ -9636,12 +9625,12 @@
       </c>
     </row>
     <row r="26" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="163"/>
-      <c r="C26" s="164"/>
-      <c r="D26" s="163" t="s">
+      <c r="B26" s="185"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="185" t="s">
         <v>239</v>
       </c>
-      <c r="E26" s="164"/>
+      <c r="E26" s="186"/>
       <c r="F26" s="41">
         <v>0</v>
       </c>
@@ -9660,89 +9649,67 @@
     </row>
     <row r="27" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="28" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="161" t="s">
-        <v>261</v>
-      </c>
-      <c r="C28" s="167"/>
-      <c r="D28" s="165" t="s">
-        <v>238</v>
-      </c>
-      <c r="E28" s="166"/>
-      <c r="F28" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="G28" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="H28" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="I28" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="J28" s="65" t="s">
-        <v>118</v>
-      </c>
+      <c r="B28" s="181" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" s="200"/>
+      <c r="D28" s="162" t="s">
+        <v>282</v>
+      </c>
+      <c r="E28" s="163"/>
+      <c r="F28" s="162" t="s">
+        <v>283</v>
+      </c>
+      <c r="G28" s="163"/>
     </row>
     <row r="29" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="163"/>
-      <c r="C29" s="168"/>
-      <c r="D29" s="165" t="s">
-        <v>240</v>
+      <c r="B29" s="185"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="164">
+        <v>1</v>
       </c>
       <c r="E29" s="166"/>
-      <c r="F29" s="41">
-        <v>2</v>
-      </c>
-      <c r="G29" s="41">
-        <v>2</v>
-      </c>
-      <c r="H29" s="41">
-        <v>2</v>
-      </c>
-      <c r="I29" s="41">
-        <v>2</v>
-      </c>
-      <c r="J29" s="42">
-        <v>2</v>
-      </c>
+      <c r="F29" s="164">
+        <v>4</v>
+      </c>
+      <c r="G29" s="166"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B30" s="229" t="s">
+      <c r="B30" s="167" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="169"/>
+    </row>
+    <row r="31" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="170" t="s">
         <v>280</v>
       </c>
-      <c r="C30" s="230"/>
-      <c r="D30" s="230"/>
-      <c r="E30" s="230"/>
-      <c r="F30" s="230"/>
-      <c r="G30" s="230"/>
-      <c r="H30" s="230"/>
-      <c r="I30" s="230"/>
-      <c r="J30" s="231"/>
-    </row>
-    <row r="31" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="207" t="s">
-        <v>281</v>
-      </c>
-      <c r="C31" s="208"/>
-      <c r="D31" s="208"/>
-      <c r="E31" s="208"/>
-      <c r="F31" s="208"/>
-      <c r="G31" s="208"/>
-      <c r="H31" s="208"/>
-      <c r="I31" s="208"/>
-      <c r="J31" s="209"/>
+      <c r="C31" s="171"/>
+      <c r="D31" s="171"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="171"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="171"/>
+      <c r="I31" s="171"/>
+      <c r="J31" s="172"/>
     </row>
     <row r="32" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="33" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B33" s="161" t="s">
+      <c r="B33" s="181" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" s="182"/>
+      <c r="D33" s="181" t="s">
         <v>241</v>
       </c>
-      <c r="C33" s="162"/>
-      <c r="D33" s="161" t="s">
-        <v>242</v>
-      </c>
-      <c r="E33" s="162"/>
+      <c r="E33" s="182"/>
       <c r="F33" s="63" t="s">
         <v>114</v>
       </c>
@@ -9760,10 +9727,10 @@
       </c>
     </row>
     <row r="34" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="169"/>
-      <c r="C34" s="170"/>
-      <c r="D34" s="163"/>
-      <c r="E34" s="164"/>
+      <c r="B34" s="183"/>
+      <c r="C34" s="184"/>
+      <c r="D34" s="185"/>
+      <c r="E34" s="186"/>
       <c r="F34" s="55">
         <v>1</v>
       </c>
@@ -9781,12 +9748,12 @@
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B35" s="169"/>
-      <c r="C35" s="170"/>
-      <c r="D35" s="161" t="s">
+      <c r="B35" s="183"/>
+      <c r="C35" s="184"/>
+      <c r="D35" s="181" t="s">
         <v>178</v>
       </c>
-      <c r="E35" s="162"/>
+      <c r="E35" s="182"/>
       <c r="F35" s="63" t="s">
         <v>114</v>
       </c>
@@ -9804,33 +9771,33 @@
       </c>
     </row>
     <row r="36" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="169"/>
-      <c r="C36" s="170"/>
-      <c r="D36" s="163"/>
-      <c r="E36" s="164"/>
+      <c r="B36" s="183"/>
+      <c r="C36" s="184"/>
+      <c r="D36" s="185"/>
+      <c r="E36" s="186"/>
       <c r="F36" s="55" t="s">
+        <v>261</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="H36" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="G36" s="41" t="s">
+      <c r="I36" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="H36" s="41" t="s">
+      <c r="J36" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="I36" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="J36" s="42" t="s">
-        <v>264</v>
-      </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B37" s="169"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="169" t="s">
-        <v>243</v>
-      </c>
-      <c r="E37" s="170"/>
+      <c r="B37" s="183"/>
+      <c r="C37" s="184"/>
+      <c r="D37" s="183" t="s">
+        <v>242</v>
+      </c>
+      <c r="E37" s="184"/>
       <c r="F37" s="63" t="s">
         <v>114</v>
       </c>
@@ -9848,10 +9815,10 @@
       </c>
     </row>
     <row r="38" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="169"/>
-      <c r="C38" s="170"/>
-      <c r="D38" s="169"/>
-      <c r="E38" s="170"/>
+      <c r="B38" s="183"/>
+      <c r="C38" s="184"/>
+      <c r="D38" s="183"/>
+      <c r="E38" s="184"/>
       <c r="F38" s="66">
         <v>1</v>
       </c>
@@ -9869,12 +9836,12 @@
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="169"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="161" t="s">
-        <v>265</v>
-      </c>
-      <c r="E39" s="162"/>
+      <c r="B39" s="183"/>
+      <c r="C39" s="184"/>
+      <c r="D39" s="181" t="s">
+        <v>264</v>
+      </c>
+      <c r="E39" s="182"/>
       <c r="F39" s="63" t="s">
         <v>58</v>
       </c>
@@ -9892,10 +9859,10 @@
       </c>
     </row>
     <row r="40" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="163"/>
-      <c r="C40" s="164"/>
-      <c r="D40" s="163"/>
-      <c r="E40" s="164"/>
+      <c r="B40" s="185"/>
+      <c r="C40" s="186"/>
+      <c r="D40" s="185"/>
+      <c r="E40" s="186"/>
       <c r="F40" s="67">
         <v>0.4</v>
       </c>
@@ -9914,36 +9881,36 @@
     </row>
     <row r="41" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="42" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="161" t="s">
+      <c r="B42" s="181" t="s">
+        <v>265</v>
+      </c>
+      <c r="C42" s="182"/>
+      <c r="D42" s="162" t="s">
         <v>266</v>
       </c>
-      <c r="C42" s="162"/>
-      <c r="D42" s="165" t="s">
-        <v>267</v>
-      </c>
-      <c r="E42" s="166"/>
-      <c r="F42" s="227">
+      <c r="E42" s="163"/>
+      <c r="F42" s="74">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="169"/>
-      <c r="C43" s="170"/>
-      <c r="D43" s="165" t="s">
-        <v>270</v>
-      </c>
-      <c r="E43" s="166"/>
+      <c r="B43" s="183"/>
+      <c r="C43" s="184"/>
+      <c r="D43" s="162" t="s">
+        <v>269</v>
+      </c>
+      <c r="E43" s="163"/>
       <c r="F43" s="73">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B44" s="169"/>
-      <c r="C44" s="170"/>
-      <c r="D44" s="161" t="s">
+      <c r="B44" s="183"/>
+      <c r="C44" s="184"/>
+      <c r="D44" s="181" t="s">
         <v>119</v>
       </c>
-      <c r="E44" s="162"/>
+      <c r="E44" s="182"/>
       <c r="F44" s="70" t="s">
         <v>114</v>
       </c>
@@ -9961,10 +9928,10 @@
       </c>
     </row>
     <row r="45" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="169"/>
-      <c r="C45" s="170"/>
-      <c r="D45" s="163"/>
-      <c r="E45" s="164"/>
+      <c r="B45" s="183"/>
+      <c r="C45" s="184"/>
+      <c r="D45" s="185"/>
+      <c r="E45" s="186"/>
       <c r="F45" s="39">
         <v>1</v>
       </c>
@@ -9982,12 +9949,12 @@
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B46" s="169"/>
-      <c r="C46" s="170"/>
-      <c r="D46" s="161" t="s">
-        <v>268</v>
-      </c>
-      <c r="E46" s="162"/>
+      <c r="B46" s="183"/>
+      <c r="C46" s="184"/>
+      <c r="D46" s="181" t="s">
+        <v>267</v>
+      </c>
+      <c r="E46" s="182"/>
       <c r="F46" s="70" t="s">
         <v>114</v>
       </c>
@@ -10005,12 +9972,12 @@
       </c>
     </row>
     <row r="47" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="169"/>
-      <c r="C47" s="170"/>
-      <c r="D47" s="163" t="s">
-        <v>269</v>
-      </c>
-      <c r="E47" s="164"/>
+      <c r="B47" s="183"/>
+      <c r="C47" s="184"/>
+      <c r="D47" s="185" t="s">
+        <v>268</v>
+      </c>
+      <c r="E47" s="186"/>
       <c r="F47" s="39">
         <v>-0.5</v>
       </c>
@@ -10028,180 +9995,180 @@
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B48" s="169"/>
-      <c r="C48" s="170"/>
-      <c r="D48" s="161" t="s">
+      <c r="B48" s="183"/>
+      <c r="C48" s="184"/>
+      <c r="D48" s="181" t="s">
+        <v>270</v>
+      </c>
+      <c r="E48" s="182"/>
+      <c r="F48" s="197">
+        <v>-1</v>
+      </c>
+      <c r="G48" s="198"/>
+      <c r="H48" s="198"/>
+      <c r="I48" s="198"/>
+      <c r="J48" s="199"/>
+    </row>
+    <row r="49" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="185"/>
+      <c r="C49" s="186"/>
+      <c r="D49" s="185" t="s">
+        <v>268</v>
+      </c>
+      <c r="E49" s="186"/>
+      <c r="F49" s="170"/>
+      <c r="G49" s="171"/>
+      <c r="H49" s="171"/>
+      <c r="I49" s="171"/>
+      <c r="J49" s="172"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B50" s="75" t="s">
+        <v>272</v>
+      </c>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="76"/>
+      <c r="J50" s="77"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B51" s="187" t="s">
+        <v>235</v>
+      </c>
+      <c r="C51" s="86"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="86"/>
+      <c r="H51" s="86"/>
+      <c r="I51" s="86"/>
+      <c r="J51" s="116"/>
+    </row>
+    <row r="52" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="78" t="s">
         <v>271</v>
       </c>
-      <c r="E48" s="162"/>
-      <c r="F48" s="205">
+      <c r="C52" s="79"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="79"/>
+      <c r="H52" s="79"/>
+      <c r="I52" s="79"/>
+      <c r="J52" s="80"/>
+    </row>
+    <row r="53" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+    </row>
+    <row r="54" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="181" t="s">
+        <v>276</v>
+      </c>
+      <c r="C54" s="182"/>
+      <c r="D54" s="162" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" s="163"/>
+      <c r="F54" s="74">
         <v>-1</v>
       </c>
-      <c r="G48" s="204"/>
-      <c r="H48" s="204"/>
-      <c r="I48" s="204"/>
-      <c r="J48" s="206"/>
-    </row>
-    <row r="49" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="163"/>
-      <c r="C49" s="164"/>
-      <c r="D49" s="163" t="s">
-        <v>269</v>
-      </c>
-      <c r="E49" s="164"/>
-      <c r="F49" s="207"/>
-      <c r="G49" s="208"/>
-      <c r="H49" s="208"/>
-      <c r="I49" s="208"/>
-      <c r="J49" s="209"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B50" s="89" t="s">
+      <c r="G54" s="162" t="s">
+        <v>65</v>
+      </c>
+      <c r="H54" s="163"/>
+      <c r="I54" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="185"/>
+      <c r="C55" s="186"/>
+      <c r="D55" s="164" t="s">
+        <v>277</v>
+      </c>
+      <c r="E55" s="165"/>
+      <c r="F55" s="165"/>
+      <c r="G55" s="165"/>
+      <c r="H55" s="165"/>
+      <c r="I55" s="166"/>
+    </row>
+    <row r="56" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B57" s="181" t="s">
         <v>273</v>
       </c>
-      <c r="C50" s="90"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="90"/>
-      <c r="I50" s="90"/>
-      <c r="J50" s="91"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B51" s="226" t="s">
-        <v>235</v>
-      </c>
-      <c r="C51" s="210"/>
-      <c r="D51" s="210"/>
-      <c r="E51" s="210"/>
-      <c r="F51" s="210"/>
-      <c r="G51" s="210"/>
-      <c r="H51" s="210"/>
-      <c r="I51" s="210"/>
-      <c r="J51" s="117"/>
-    </row>
-    <row r="52" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="92" t="s">
-        <v>272</v>
-      </c>
-      <c r="C52" s="93"/>
-      <c r="D52" s="93"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="93"/>
-      <c r="G52" s="93"/>
-      <c r="H52" s="93"/>
-      <c r="I52" s="93"/>
-      <c r="J52" s="94"/>
-    </row>
-    <row r="53" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="203"/>
-      <c r="C53" s="203"/>
-      <c r="D53" s="203"/>
-      <c r="E53" s="203"/>
-      <c r="F53" s="203"/>
-      <c r="G53" s="203"/>
-      <c r="H53" s="203"/>
-      <c r="I53" s="203"/>
-      <c r="J53" s="203"/>
-    </row>
-    <row r="54" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="161" t="s">
-        <v>277</v>
-      </c>
-      <c r="C54" s="162"/>
-      <c r="D54" s="165" t="s">
-        <v>178</v>
-      </c>
-      <c r="E54" s="166"/>
-      <c r="F54" s="227">
-        <v>-1</v>
-      </c>
-      <c r="G54" s="165" t="s">
-        <v>65</v>
-      </c>
-      <c r="H54" s="166"/>
-      <c r="I54" s="227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="163"/>
-      <c r="C55" s="164"/>
-      <c r="D55" s="171" t="s">
+      <c r="C57" s="182"/>
+      <c r="D57" s="188" t="s">
+        <v>275</v>
+      </c>
+      <c r="E57" s="189"/>
+      <c r="F57" s="189"/>
+      <c r="G57" s="189"/>
+      <c r="H57" s="189"/>
+      <c r="I57" s="189"/>
+      <c r="J57" s="190"/>
+    </row>
+    <row r="58" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="185" t="s">
+        <v>274</v>
+      </c>
+      <c r="C58" s="186"/>
+      <c r="D58" s="191" t="s">
         <v>278</v>
       </c>
-      <c r="E55" s="172"/>
-      <c r="F55" s="172"/>
-      <c r="G55" s="172"/>
-      <c r="H55" s="172"/>
-      <c r="I55" s="173"/>
-      <c r="J55" s="228"/>
-    </row>
-    <row r="56" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="203"/>
-      <c r="C56" s="203"/>
-      <c r="D56" s="203"/>
-      <c r="E56" s="203"/>
-      <c r="F56" s="203"/>
-      <c r="G56" s="203"/>
-      <c r="H56" s="203"/>
-      <c r="I56" s="203"/>
-      <c r="J56" s="203"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B57" s="161" t="s">
-        <v>274</v>
-      </c>
-      <c r="C57" s="162"/>
-      <c r="D57" s="221" t="s">
-        <v>276</v>
-      </c>
-      <c r="E57" s="222"/>
-      <c r="F57" s="222"/>
-      <c r="G57" s="222"/>
-      <c r="H57" s="222"/>
-      <c r="I57" s="222"/>
-      <c r="J57" s="223"/>
-    </row>
-    <row r="58" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="163" t="s">
-        <v>275</v>
-      </c>
-      <c r="C58" s="164"/>
-      <c r="D58" s="224" t="s">
-        <v>279</v>
-      </c>
-      <c r="E58" s="179"/>
-      <c r="F58" s="179"/>
-      <c r="G58" s="179"/>
-      <c r="H58" s="179"/>
-      <c r="I58" s="179"/>
-      <c r="J58" s="225"/>
+      <c r="E58" s="192"/>
+      <c r="F58" s="192"/>
+      <c r="G58" s="192"/>
+      <c r="H58" s="192"/>
+      <c r="I58" s="192"/>
+      <c r="J58" s="193"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B31:J31"/>
+  <mergeCells count="45">
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="D33:E34"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="D58:J58"/>
+    <mergeCell ref="B54:C55"/>
     <mergeCell ref="D22:L22"/>
     <mergeCell ref="B20:C22"/>
     <mergeCell ref="B42:C49"/>
     <mergeCell ref="B50:J50"/>
     <mergeCell ref="B51:J51"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="D58:J58"/>
-    <mergeCell ref="B54:C55"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="D20:L20"/>
     <mergeCell ref="D21:L21"/>
     <mergeCell ref="F24:J24"/>
     <mergeCell ref="D25:E25"/>
@@ -10213,11 +10180,12 @@
     <mergeCell ref="D39:E40"/>
     <mergeCell ref="B33:C40"/>
     <mergeCell ref="B24:C26"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D33:E34"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B52:J52"/>
     <mergeCell ref="D35:E36"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D47:E47"/>
@@ -10243,78 +10211,78 @@
   <sheetData>
     <row r="18" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B19" s="161" t="s">
+      <c r="B19" s="181" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="167"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="167"/>
-      <c r="J19" s="167"/>
-      <c r="K19" s="167"/>
-      <c r="L19" s="167"/>
-      <c r="M19" s="162"/>
+      <c r="C19" s="200"/>
+      <c r="D19" s="200"/>
+      <c r="E19" s="200"/>
+      <c r="F19" s="200"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="200"/>
+      <c r="J19" s="200"/>
+      <c r="K19" s="200"/>
+      <c r="L19" s="200"/>
+      <c r="M19" s="182"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B20" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="19"/>
-      <c r="D20" s="155" t="s">
+      <c r="D20" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="156"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="157"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="155"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="155"/>
+      <c r="K20" s="155"/>
+      <c r="L20" s="155"/>
+      <c r="M20" s="156"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B21" s="183" t="s">
+      <c r="B21" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="184"/>
-      <c r="D21" s="155" t="s">
+      <c r="C21" s="213"/>
+      <c r="D21" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="156"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="157"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="155"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="155"/>
+      <c r="L21" s="155"/>
+      <c r="M21" s="156"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B22" s="185"/>
-      <c r="C22" s="186"/>
-      <c r="D22" s="155" t="s">
+      <c r="B22" s="214"/>
+      <c r="C22" s="215"/>
+      <c r="D22" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="156"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="157"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="155"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="156"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B23" s="183" t="s">
+      <c r="B23" s="212" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="184"/>
+      <c r="C23" s="213"/>
       <c r="D23" s="19" t="s">
         <v>30</v>
       </c>
@@ -10329,26 +10297,26 @@
       <c r="M23" s="19"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B24" s="185"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="155" t="s">
+      <c r="B24" s="214"/>
+      <c r="C24" s="215"/>
+      <c r="D24" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="156"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="157"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="155"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="155"/>
+      <c r="K24" s="155"/>
+      <c r="L24" s="155"/>
+      <c r="M24" s="156"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B25" s="183" t="s">
+      <c r="B25" s="212" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="184"/>
+      <c r="C25" s="213"/>
       <c r="D25" s="19" t="s">
         <v>33</v>
       </c>
@@ -10363,33 +10331,33 @@
       <c r="M25" s="19"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B26" s="185"/>
-      <c r="C26" s="186"/>
-      <c r="D26" s="155" t="s">
+      <c r="B26" s="214"/>
+      <c r="C26" s="215"/>
+      <c r="D26" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="156"/>
-      <c r="L26" s="156"/>
-      <c r="M26" s="157"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="156"/>
     </row>
     <row r="27" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="28" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B28" s="161" t="s">
+      <c r="B28" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="162"/>
-      <c r="D28" s="187" t="s">
+      <c r="C28" s="182"/>
+      <c r="D28" s="202" t="s">
         <v>120</v>
       </c>
-      <c r="E28" s="188"/>
-      <c r="F28" s="188"/>
-      <c r="G28" s="188"/>
+      <c r="E28" s="203"/>
+      <c r="F28" s="203"/>
+      <c r="G28" s="203"/>
       <c r="H28" s="48" t="s">
         <v>114</v>
       </c>
@@ -10407,14 +10375,14 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="169"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="189" t="s">
+      <c r="B29" s="183"/>
+      <c r="C29" s="184"/>
+      <c r="D29" s="204" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="190"/>
-      <c r="F29" s="190"/>
-      <c r="G29" s="190"/>
+      <c r="E29" s="205"/>
+      <c r="F29" s="205"/>
+      <c r="G29" s="205"/>
       <c r="H29" s="50">
         <v>5</v>
       </c>
@@ -10432,197 +10400,223 @@
       </c>
     </row>
     <row r="30" spans="2:13" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="169"/>
-      <c r="C30" s="170"/>
-      <c r="D30" s="191" t="s">
+      <c r="B30" s="183"/>
+      <c r="C30" s="184"/>
+      <c r="D30" s="206" t="s">
         <v>206</v>
       </c>
-      <c r="E30" s="99" t="s">
+      <c r="E30" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="193"/>
-      <c r="I30" s="137" t="s">
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="208"/>
+      <c r="I30" s="138" t="s">
         <v>147</v>
       </c>
-      <c r="J30" s="137"/>
-      <c r="K30" s="137">
+      <c r="J30" s="138"/>
+      <c r="K30" s="138">
         <v>-2</v>
       </c>
-      <c r="L30" s="138"/>
+      <c r="L30" s="139"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B31" s="169"/>
-      <c r="C31" s="170"/>
-      <c r="D31" s="192"/>
-      <c r="E31" s="101"/>
+      <c r="B31" s="183"/>
+      <c r="C31" s="184"/>
+      <c r="D31" s="207"/>
+      <c r="E31" s="87"/>
       <c r="F31" s="88"/>
       <c r="G31" s="88"/>
-      <c r="H31" s="153"/>
-      <c r="I31" s="85" t="s">
+      <c r="H31" s="142"/>
+      <c r="I31" s="100" t="s">
         <v>208</v>
       </c>
-      <c r="J31" s="85"/>
-      <c r="K31" s="85">
+      <c r="J31" s="100"/>
+      <c r="K31" s="100">
         <v>1</v>
       </c>
-      <c r="L31" s="123"/>
+      <c r="L31" s="107"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B32" s="169"/>
-      <c r="C32" s="170"/>
-      <c r="D32" s="182" t="s">
+      <c r="B32" s="183"/>
+      <c r="C32" s="184"/>
+      <c r="D32" s="216" t="s">
         <v>209</v>
       </c>
-      <c r="E32" s="85" t="s">
+      <c r="E32" s="100" t="s">
         <v>207</v>
       </c>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="160" t="s">
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="144" t="s">
         <v>210</v>
       </c>
-      <c r="J32" s="85"/>
-      <c r="K32" s="85">
+      <c r="J32" s="100"/>
+      <c r="K32" s="100">
         <v>-1</v>
       </c>
-      <c r="L32" s="123"/>
+      <c r="L32" s="107"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B33" s="169"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="182"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85" t="s">
+      <c r="B33" s="183"/>
+      <c r="C33" s="184"/>
+      <c r="D33" s="216"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100" t="s">
         <v>208</v>
       </c>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85">
+      <c r="J33" s="100"/>
+      <c r="K33" s="100">
         <v>5</v>
       </c>
-      <c r="L33" s="123"/>
+      <c r="L33" s="107"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B34" s="169"/>
-      <c r="C34" s="170"/>
-      <c r="D34" s="182" t="s">
+      <c r="B34" s="183"/>
+      <c r="C34" s="184"/>
+      <c r="D34" s="216" t="s">
         <v>211</v>
       </c>
-      <c r="E34" s="85" t="s">
+      <c r="E34" s="100" t="s">
         <v>212</v>
       </c>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85" t="s">
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85">
+      <c r="J34" s="100"/>
+      <c r="K34" s="100">
         <v>-1</v>
       </c>
-      <c r="L34" s="123"/>
+      <c r="L34" s="107"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B35" s="169"/>
-      <c r="C35" s="170"/>
-      <c r="D35" s="182"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85" t="s">
+      <c r="B35" s="183"/>
+      <c r="C35" s="184"/>
+      <c r="D35" s="216"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100" t="s">
         <v>208</v>
       </c>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85">
+      <c r="J35" s="100"/>
+      <c r="K35" s="100">
         <v>4</v>
       </c>
-      <c r="L35" s="123"/>
+      <c r="L35" s="107"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B36" s="169"/>
-      <c r="C36" s="170"/>
-      <c r="D36" s="194" t="s">
+      <c r="B36" s="183"/>
+      <c r="C36" s="184"/>
+      <c r="D36" s="209" t="s">
         <v>213</v>
       </c>
-      <c r="E36" s="85" t="s">
+      <c r="E36" s="100" t="s">
         <v>212</v>
       </c>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85" t="s">
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="100" t="s">
         <v>210</v>
       </c>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85">
+      <c r="J36" s="100"/>
+      <c r="K36" s="100">
         <v>-2</v>
       </c>
-      <c r="L36" s="123"/>
+      <c r="L36" s="107"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B37" s="169"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="195"/>
-      <c r="E37" s="196"/>
-      <c r="F37" s="196"/>
-      <c r="G37" s="196"/>
-      <c r="H37" s="196"/>
-      <c r="I37" s="196" t="s">
+      <c r="B37" s="183"/>
+      <c r="C37" s="184"/>
+      <c r="D37" s="210"/>
+      <c r="E37" s="211"/>
+      <c r="F37" s="211"/>
+      <c r="G37" s="211"/>
+      <c r="H37" s="211"/>
+      <c r="I37" s="211" t="s">
         <v>214</v>
       </c>
-      <c r="J37" s="196"/>
-      <c r="K37" s="85">
+      <c r="J37" s="211"/>
+      <c r="K37" s="100">
         <v>2</v>
       </c>
-      <c r="L37" s="123"/>
+      <c r="L37" s="107"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B38" s="169"/>
-      <c r="C38" s="170"/>
-      <c r="D38" s="180" t="s">
+      <c r="B38" s="183"/>
+      <c r="C38" s="184"/>
+      <c r="D38" s="219" t="s">
         <v>215</v>
       </c>
-      <c r="E38" s="177" t="s">
+      <c r="E38" s="217" t="s">
         <v>216</v>
       </c>
-      <c r="F38" s="178"/>
-      <c r="G38" s="178"/>
-      <c r="H38" s="178"/>
-      <c r="I38" s="85" t="s">
+      <c r="F38" s="218"/>
+      <c r="G38" s="218"/>
+      <c r="H38" s="218"/>
+      <c r="I38" s="100" t="s">
         <v>210</v>
       </c>
-      <c r="J38" s="85"/>
-      <c r="K38" s="137">
+      <c r="J38" s="100"/>
+      <c r="K38" s="138">
         <v>-10</v>
       </c>
-      <c r="L38" s="138"/>
+      <c r="L38" s="139"/>
     </row>
     <row r="39" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="163"/>
-      <c r="C39" s="164"/>
-      <c r="D39" s="181"/>
-      <c r="E39" s="179"/>
-      <c r="F39" s="179"/>
-      <c r="G39" s="179"/>
-      <c r="H39" s="179"/>
-      <c r="I39" s="120" t="s">
+      <c r="B39" s="185"/>
+      <c r="C39" s="186"/>
+      <c r="D39" s="220"/>
+      <c r="E39" s="192"/>
+      <c r="F39" s="192"/>
+      <c r="G39" s="192"/>
+      <c r="H39" s="192"/>
+      <c r="I39" s="109" t="s">
         <v>217</v>
       </c>
-      <c r="J39" s="120"/>
-      <c r="K39" s="120" t="s">
+      <c r="J39" s="109"/>
+      <c r="K39" s="109" t="s">
         <v>218</v>
       </c>
-      <c r="L39" s="124"/>
+      <c r="L39" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="E38:H39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:H35"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="D22:M22"/>
     <mergeCell ref="B28:C39"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
@@ -10639,32 +10633,6 @@
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="K36:L36"/>
     <mergeCell ref="I37:J37"/>
-    <mergeCell ref="B19:M19"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="D20:M20"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:H35"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="E38:H39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10692,300 +10660,300 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="198"/>
-      <c r="C19" s="198"/>
-      <c r="D19" s="198"/>
-      <c r="E19" s="198"/>
-      <c r="F19" s="198"/>
-      <c r="G19" s="198"/>
-      <c r="H19" s="198"/>
-      <c r="I19" s="198"/>
-      <c r="J19" s="198"/>
-      <c r="K19" s="198"/>
-      <c r="L19" s="198"/>
-      <c r="M19" s="198"/>
-      <c r="N19" s="198"/>
-      <c r="O19" s="198"/>
+      <c r="B19" s="221"/>
+      <c r="C19" s="221"/>
+      <c r="D19" s="221"/>
+      <c r="E19" s="221"/>
+      <c r="F19" s="221"/>
+      <c r="G19" s="221"/>
+      <c r="H19" s="221"/>
+      <c r="I19" s="221"/>
+      <c r="J19" s="221"/>
+      <c r="K19" s="221"/>
+      <c r="L19" s="221"/>
+      <c r="M19" s="221"/>
+      <c r="N19" s="221"/>
+      <c r="O19" s="221"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B20" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="19"/>
-      <c r="D20" s="84" t="s">
+      <c r="D20" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="84" t="s">
+      <c r="C21" s="100"/>
+      <c r="D21" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85" t="s">
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85" t="s">
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85" t="s">
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85" t="s">
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85" t="s">
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85" t="s">
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100" t="s">
         <v>152</v>
       </c>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85" t="s">
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="197" t="s">
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="222" t="s">
         <v>153</v>
       </c>
-      <c r="N23" s="85"/>
-      <c r="O23" s="85"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B24" s="134" t="s">
+      <c r="B24" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="134"/>
-      <c r="D24" s="84" t="s">
+      <c r="C24" s="135"/>
+      <c r="D24" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B25" s="134"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="85" t="s">
+      <c r="B25" s="135"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="100" t="s">
         <v>154</v>
       </c>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85" t="s">
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85" t="s">
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85" t="s">
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="N25" s="85"/>
-      <c r="O25" s="85"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="100"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B26" s="134"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="85" t="s">
+      <c r="B26" s="135"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="100" t="s">
         <v>158</v>
       </c>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85" t="s">
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85" t="s">
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="85" t="s">
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="N26" s="85"/>
-      <c r="O26" s="85"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="100"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B27" s="134" t="s">
+      <c r="B27" s="135" t="s">
         <v>159</v>
       </c>
-      <c r="C27" s="134"/>
-      <c r="D27" s="84" t="s">
-        <v>260</v>
-      </c>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="99" t="s">
+        <v>259</v>
+      </c>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B28" s="134"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="85" t="s">
+      <c r="B28" s="135"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="100" t="s">
         <v>161</v>
       </c>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85" t="s">
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100" t="s">
         <v>163</v>
       </c>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85" t="s">
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85" t="s">
+      <c r="K28" s="100"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="100" t="s">
         <v>162</v>
       </c>
-      <c r="N28" s="85"/>
-      <c r="O28" s="85"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B29" s="134" t="s">
+      <c r="B29" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="134"/>
-      <c r="D29" s="85" t="s">
+      <c r="C29" s="135"/>
+      <c r="D29" s="100" t="s">
         <v>164</v>
       </c>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="85"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="100"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B30" s="134"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="85" t="s">
+      <c r="B30" s="135"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="100" t="s">
         <v>165</v>
       </c>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="85"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="100"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="100"/>
+      <c r="M30" s="100"/>
+      <c r="N30" s="100"/>
+      <c r="O30" s="100"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B31" s="134"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="85" t="s">
+      <c r="B31" s="135"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="85"/>
-      <c r="N31" s="85"/>
-      <c r="O31" s="85"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="100"/>
+      <c r="N31" s="100"/>
+      <c r="O31" s="100"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B32" s="134"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="85" t="s">
+      <c r="B32" s="135"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="100" t="s">
         <v>167</v>
       </c>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85" t="s">
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="85" t="s">
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="K32" s="85"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="85" t="s">
+      <c r="K32" s="100"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="100" t="s">
         <v>168</v>
       </c>
-      <c r="N32" s="85"/>
-      <c r="O32" s="85"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B34" s="30"/>
@@ -11069,6 +11037,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B29:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="D29:O29"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="D30:O30"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
     <mergeCell ref="B19:O19"/>
     <mergeCell ref="D20:O20"/>
     <mergeCell ref="D21:O21"/>
@@ -11085,26 +11073,6 @@
     <mergeCell ref="J26:L26"/>
     <mergeCell ref="M26:O26"/>
     <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="B29:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="D29:O29"/>
-    <mergeCell ref="D31:O31"/>
-    <mergeCell ref="D30:O30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11128,302 +11096,300 @@
   <sheetData>
     <row r="36" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="37" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="200" t="s">
+      <c r="B37" s="223" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="201"/>
-      <c r="D37" s="201"/>
-      <c r="E37" s="201"/>
-      <c r="F37" s="201"/>
-      <c r="G37" s="201"/>
-      <c r="H37" s="201"/>
-      <c r="I37" s="201"/>
-      <c r="J37" s="201"/>
-      <c r="K37" s="201"/>
-      <c r="L37" s="202"/>
+      <c r="C37" s="224"/>
+      <c r="D37" s="224"/>
+      <c r="E37" s="224"/>
+      <c r="F37" s="224"/>
+      <c r="G37" s="224"/>
+      <c r="H37" s="224"/>
+      <c r="I37" s="224"/>
+      <c r="J37" s="224"/>
+      <c r="K37" s="224"/>
+      <c r="L37" s="225"/>
     </row>
     <row r="38" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="132" t="s">
+      <c r="B38" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="87"/>
-      <c r="D38" s="137" t="s">
+      <c r="C38" s="102"/>
+      <c r="D38" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="137"/>
-      <c r="F38" s="137"/>
-      <c r="G38" s="137"/>
-      <c r="H38" s="137"/>
-      <c r="I38" s="137"/>
-      <c r="J38" s="137"/>
-      <c r="K38" s="137"/>
-      <c r="L38" s="138"/>
+      <c r="E38" s="138"/>
+      <c r="F38" s="138"/>
+      <c r="G38" s="138"/>
+      <c r="H38" s="138"/>
+      <c r="I38" s="138"/>
+      <c r="J38" s="138"/>
+      <c r="K38" s="138"/>
+      <c r="L38" s="139"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B39" s="133" t="s">
+      <c r="B39" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="134"/>
-      <c r="D39" s="85" t="s">
+      <c r="C39" s="135"/>
+      <c r="D39" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="123"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="100"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="107"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B40" s="133"/>
-      <c r="C40" s="134"/>
-      <c r="D40" s="85" t="s">
+      <c r="B40" s="134"/>
+      <c r="C40" s="135"/>
+      <c r="D40" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85" t="s">
+      <c r="E40" s="100"/>
+      <c r="F40" s="100" t="s">
         <v>177</v>
       </c>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85" t="s">
+      <c r="G40" s="100"/>
+      <c r="H40" s="100" t="s">
         <v>176</v>
       </c>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85" t="s">
+      <c r="I40" s="100"/>
+      <c r="J40" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="K40" s="85"/>
-      <c r="L40" s="123"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="107"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B41" s="133"/>
-      <c r="C41" s="134"/>
-      <c r="D41" s="85" t="s">
+      <c r="B41" s="134"/>
+      <c r="C41" s="135"/>
+      <c r="D41" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85" t="s">
+      <c r="E41" s="100"/>
+      <c r="F41" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85" t="s">
+      <c r="G41" s="100"/>
+      <c r="H41" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85">
+      <c r="I41" s="100"/>
+      <c r="J41" s="100">
         <v>1</v>
       </c>
-      <c r="K41" s="85"/>
-      <c r="L41" s="123"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="107"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B42" s="113" t="s">
+      <c r="B42" s="106" t="s">
         <v>219</v>
       </c>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85" t="s">
+      <c r="C42" s="100"/>
+      <c r="D42" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="123"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="100"/>
+      <c r="K42" s="100"/>
+      <c r="L42" s="107"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B43" s="113"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="85" t="s">
+      <c r="B43" s="106"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="E43" s="85"/>
-      <c r="F43" s="85" t="s">
+      <c r="E43" s="100"/>
+      <c r="F43" s="100" t="s">
         <v>168</v>
       </c>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85" t="s">
+      <c r="G43" s="100"/>
+      <c r="H43" s="100" t="s">
         <v>176</v>
       </c>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85" t="s">
+      <c r="I43" s="100"/>
+      <c r="J43" s="100" t="s">
         <v>221</v>
       </c>
-      <c r="K43" s="85"/>
-      <c r="L43" s="123"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="107"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B44" s="113"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85" t="s">
+      <c r="B44" s="106"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100" t="s">
         <v>222</v>
       </c>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85" t="s">
+      <c r="E44" s="100"/>
+      <c r="F44" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85" t="s">
+      <c r="G44" s="100"/>
+      <c r="H44" s="100" t="s">
         <v>223</v>
       </c>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85" t="s">
+      <c r="I44" s="100"/>
+      <c r="J44" s="100" t="s">
         <v>224</v>
       </c>
-      <c r="K44" s="85"/>
-      <c r="L44" s="123"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="107"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B45" s="113" t="s">
+      <c r="B45" s="106" t="s">
         <v>225</v>
       </c>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85" t="s">
+      <c r="C45" s="100"/>
+      <c r="D45" s="100" t="s">
         <v>226</v>
       </c>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="123"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="100"/>
+      <c r="I45" s="100"/>
+      <c r="J45" s="100"/>
+      <c r="K45" s="100"/>
+      <c r="L45" s="107"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B46" s="113"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85" t="s">
+      <c r="B46" s="106"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85" t="s">
+      <c r="E46" s="100"/>
+      <c r="F46" s="100" t="s">
         <v>227</v>
       </c>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85" t="s">
+      <c r="G46" s="100"/>
+      <c r="H46" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="I46" s="85"/>
-      <c r="J46" s="85" t="s">
+      <c r="I46" s="100"/>
+      <c r="J46" s="100" t="s">
         <v>228</v>
       </c>
-      <c r="K46" s="85"/>
-      <c r="L46" s="123"/>
+      <c r="K46" s="100"/>
+      <c r="L46" s="107"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B47" s="113"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="85" t="s">
+      <c r="B47" s="106"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="100" t="s">
         <v>222</v>
       </c>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85" t="s">
+      <c r="E47" s="100"/>
+      <c r="F47" s="100" t="s">
         <v>229</v>
       </c>
-      <c r="G47" s="85"/>
-      <c r="H47" s="85" t="s">
+      <c r="G47" s="100"/>
+      <c r="H47" s="100" t="s">
         <v>223</v>
       </c>
-      <c r="I47" s="85"/>
-      <c r="J47" s="85" t="s">
+      <c r="I47" s="100"/>
+      <c r="J47" s="100" t="s">
         <v>230</v>
       </c>
-      <c r="K47" s="85"/>
-      <c r="L47" s="123"/>
+      <c r="K47" s="100"/>
+      <c r="L47" s="107"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B48" s="199" t="s">
-        <v>259</v>
-      </c>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85" t="s">
+      <c r="B48" s="226" t="s">
+        <v>258</v>
+      </c>
+      <c r="C48" s="100"/>
+      <c r="D48" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="85"/>
-      <c r="J48" s="85"/>
-      <c r="K48" s="85"/>
-      <c r="L48" s="123"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="100"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="100"/>
+      <c r="I48" s="100"/>
+      <c r="J48" s="100"/>
+      <c r="K48" s="100"/>
+      <c r="L48" s="107"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B49" s="113"/>
-      <c r="C49" s="85"/>
+      <c r="B49" s="106"/>
+      <c r="C49" s="100"/>
       <c r="D49" s="19" t="s">
         <v>146</v>
       </c>
       <c r="E49" s="19"/>
-      <c r="F49" s="85" t="s">
+      <c r="F49" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85" t="s">
+      <c r="G49" s="100"/>
+      <c r="H49" s="100" t="s">
+        <v>255</v>
+      </c>
+      <c r="I49" s="100"/>
+      <c r="J49" s="100" t="s">
+        <v>148</v>
+      </c>
+      <c r="K49" s="100"/>
+      <c r="L49" s="107"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B50" s="106"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="100" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" s="100"/>
+      <c r="F50" s="100" t="s">
+        <v>152</v>
+      </c>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="100"/>
+      <c r="K50" s="100"/>
+      <c r="L50" s="107"/>
+    </row>
+    <row r="51" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="108"/>
+      <c r="C51" s="109"/>
+      <c r="D51" s="109" t="s">
         <v>256</v>
       </c>
-      <c r="I49" s="85"/>
-      <c r="J49" s="85" t="s">
-        <v>148</v>
-      </c>
-      <c r="K49" s="85"/>
-      <c r="L49" s="123"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B50" s="113"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85" t="s">
-        <v>149</v>
-      </c>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85" t="s">
-        <v>152</v>
-      </c>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="85"/>
-      <c r="J50" s="85"/>
-      <c r="K50" s="85"/>
-      <c r="L50" s="123"/>
-    </row>
-    <row r="51" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="119"/>
-      <c r="C51" s="120"/>
-      <c r="D51" s="120" t="s">
+      <c r="E51" s="109"/>
+      <c r="F51" s="109"/>
+      <c r="G51" s="109"/>
+      <c r="H51" s="109" t="s">
         <v>257</v>
       </c>
-      <c r="E51" s="120"/>
-      <c r="F51" s="120"/>
-      <c r="G51" s="120"/>
-      <c r="H51" s="120" t="s">
-        <v>258</v>
-      </c>
-      <c r="I51" s="120"/>
-      <c r="J51" s="120"/>
-      <c r="K51" s="120"/>
-      <c r="L51" s="124"/>
+      <c r="I51" s="109"/>
+      <c r="J51" s="109"/>
+      <c r="K51" s="109"/>
+      <c r="L51" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B37:L37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:L38"/>
-    <mergeCell ref="B39:C41"/>
-    <mergeCell ref="D39:L39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="D45:L45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="F50:L50"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="D48:L48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="J49:L49"/>
     <mergeCell ref="B48:C51"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:G41"/>
@@ -11440,18 +11406,20 @@
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="J44:L44"/>
     <mergeCell ref="B45:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="F50:L50"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="D48:L48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D45:L45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="B37:L37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:L38"/>
+    <mergeCell ref="B39:C41"/>
+    <mergeCell ref="D39:L39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:L40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
